--- a/public/barcode_export.xlsx
+++ b/public/barcode_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="732">
   <si>
     <t>Artikel</t>
   </si>
@@ -2211,15 +2211,6 @@
   </si>
   <si>
     <t>sensor for space measurement</t>
-  </si>
-  <si>
-    <t>Zucker</t>
-  </si>
-  <si>
-    <t>IN SH TEST</t>
-  </si>
-  <si>
-    <t>Zucker für den Kaffee über der Kaffemaschine</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2549,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G438"/>
+  <dimension ref="A1:G437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -11632,23 +11623,6 @@
       </c>
       <c r="F437"/>
       <c r="G437"/>
-    </row>
-    <row r="438" spans="1:7">
-      <c r="A438" t="s">
-        <v>732</v>
-      </c>
-      <c r="B438" t="s">
-        <v>733</v>
-      </c>
-      <c r="C438" t="s">
-        <v>734</v>
-      </c>
-      <c r="D438"/>
-      <c r="E438" t="s">
-        <v>11</v>
-      </c>
-      <c r="F438"/>
-      <c r="G438"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
